--- a/REGULAR/ASSESSOR/BAYHON, GEORGE G..xlsx
+++ b/REGULAR/ASSESSOR/BAYHON, GEORGE G..xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="287">
   <si>
     <t>PERIOD</t>
   </si>
@@ -881,6 +881,27 @@
   </si>
   <si>
     <t>UT(0-2-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-1-20)</t>
+  </si>
+  <si>
+    <t>UT(0-1-24)</t>
+  </si>
+  <si>
+    <t>UT(0-6-4)</t>
+  </si>
+  <si>
+    <t>UT(0-0-18)</t>
+  </si>
+  <si>
+    <t>UT(0-1-5)</t>
+  </si>
+  <si>
+    <t>UT(0-1-13)</t>
   </si>
 </sst>
 </file>
@@ -936,6 +957,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -943,6 +965,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1745,7 +1768,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K486" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K489" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2074,12 +2097,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K486"/>
+  <dimension ref="A2:K489"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A426" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="D439" sqref="D439"/>
+      <selection pane="bottomLeft" activeCell="F439" sqref="F439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2249,7 +2272,7 @@
       <c r="D9" s="43"/>
       <c r="E9" s="12">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>109.45000000000007</v>
+        <v>112.83000000000007</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="12" t="str">
@@ -2259,7 +2282,7 @@
       <c r="H9" s="43"/>
       <c r="I9" s="12">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>235.125</v>
+        <v>240.125</v>
       </c>
       <c r="J9" s="43"/>
       <c r="K9" s="44"/>
@@ -11566,11 +11589,15 @@
       <c r="A431" s="46">
         <v>44927</v>
       </c>
-      <c r="B431" s="44"/>
+      <c r="B431" s="44" t="s">
+        <v>220</v>
+      </c>
       <c r="C431" s="12">
         <v>1.25</v>
       </c>
-      <c r="D431" s="45"/>
+      <c r="D431" s="45">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E431" s="47"/>
       <c r="F431" s="44"/>
       <c r="G431" s="12">
@@ -11586,11 +11613,15 @@
       <c r="A432" s="46">
         <v>44958</v>
       </c>
-      <c r="B432" s="44"/>
+      <c r="B432" s="44" t="s">
+        <v>286</v>
+      </c>
       <c r="C432" s="12">
         <v>1.25</v>
       </c>
-      <c r="D432" s="45"/>
+      <c r="D432" s="45">
+        <v>0.15200000000000002</v>
+      </c>
       <c r="E432" s="47"/>
       <c r="F432" s="44"/>
       <c r="G432" s="12">
@@ -11606,11 +11637,15 @@
       <c r="A433" s="46">
         <v>44986</v>
       </c>
-      <c r="B433" s="44"/>
+      <c r="B433" s="44" t="s">
+        <v>285</v>
+      </c>
       <c r="C433" s="12">
         <v>1.25</v>
       </c>
-      <c r="D433" s="45"/>
+      <c r="D433" s="45">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="E433" s="47"/>
       <c r="F433" s="44"/>
       <c r="G433" s="12">
@@ -11650,11 +11685,15 @@
       <c r="A435" s="46">
         <v>45047</v>
       </c>
-      <c r="B435" s="44"/>
+      <c r="B435" s="44" t="s">
+        <v>284</v>
+      </c>
       <c r="C435" s="12">
         <v>1.25</v>
       </c>
-      <c r="D435" s="45"/>
+      <c r="D435" s="45">
+        <v>3.7000000000000019E-2</v>
+      </c>
       <c r="E435" s="47"/>
       <c r="F435" s="44"/>
       <c r="G435" s="12">
@@ -11670,11 +11709,15 @@
       <c r="A436" s="46">
         <v>45078</v>
       </c>
-      <c r="B436" s="44"/>
+      <c r="B436" s="44" t="s">
+        <v>219</v>
+      </c>
       <c r="C436" s="12">
         <v>1.25</v>
       </c>
-      <c r="D436" s="45"/>
+      <c r="D436" s="45">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="E436" s="47"/>
       <c r="F436" s="44"/>
       <c r="G436" s="12">
@@ -11713,68 +11756,82 @@
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" s="46">
-        <v>45139</v>
-      </c>
-      <c r="B438" s="44"/>
-      <c r="C438" s="12">
-        <v>1.25</v>
-      </c>
-      <c r="D438" s="45"/>
+      <c r="A438" s="46"/>
+      <c r="B438" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="C438" s="12"/>
+      <c r="D438" s="45">
+        <v>0.75800000000000001</v>
+      </c>
       <c r="E438" s="47"/>
       <c r="F438" s="44"/>
-      <c r="G438" s="12">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G438" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H438" s="45"/>
       <c r="I438" s="47"/>
       <c r="J438" s="43"/>
-      <c r="K438" s="44"/>
+      <c r="K438" s="48"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="46">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B439" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C439" s="12"/>
-      <c r="D439" s="45"/>
+        <v>278</v>
+      </c>
+      <c r="C439" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="D439" s="45">
+        <v>0.11900000000000001</v>
+      </c>
       <c r="E439" s="47"/>
       <c r="F439" s="44"/>
-      <c r="G439" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G439" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H439" s="45"/>
       <c r="I439" s="47"/>
       <c r="J439" s="43"/>
-      <c r="K439" s="48">
-        <v>45183</v>
-      </c>
+      <c r="K439" s="44"/>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440" s="46"/>
-      <c r="B440" s="44"/>
-      <c r="C440" s="12"/>
+      <c r="A440" s="46">
+        <v>45170</v>
+      </c>
+      <c r="B440" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C440" s="12">
+        <v>1.25</v>
+      </c>
       <c r="D440" s="45"/>
       <c r="E440" s="47"/>
       <c r="F440" s="44"/>
-      <c r="G440" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G440" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H440" s="45"/>
       <c r="I440" s="47"/>
       <c r="J440" s="43"/>
-      <c r="K440" s="44"/>
+      <c r="K440" s="48">
+        <v>45183</v>
+      </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="46"/>
-      <c r="B441" s="44"/>
+      <c r="B441" s="44" t="s">
+        <v>282</v>
+      </c>
       <c r="C441" s="12"/>
-      <c r="D441" s="45"/>
+      <c r="D441" s="45">
+        <v>0.17500000000000002</v>
+      </c>
       <c r="E441" s="47"/>
       <c r="F441" s="44"/>
       <c r="G441" s="12" t="str">
@@ -11784,18 +11841,22 @@
       <c r="H441" s="45"/>
       <c r="I441" s="47"/>
       <c r="J441" s="43"/>
-      <c r="K441" s="44"/>
+      <c r="K441" s="48"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A442" s="46"/>
+      <c r="A442" s="46">
+        <v>45200</v>
+      </c>
       <c r="B442" s="44"/>
-      <c r="C442" s="12"/>
+      <c r="C442" s="12">
+        <v>1.25</v>
+      </c>
       <c r="D442" s="45"/>
       <c r="E442" s="47"/>
       <c r="F442" s="44"/>
-      <c r="G442" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G442" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H442" s="45"/>
       <c r="I442" s="47"/>
@@ -11803,15 +11864,23 @@
       <c r="K442" s="44"/>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A443" s="46"/>
-      <c r="B443" s="44"/>
-      <c r="C443" s="12"/>
-      <c r="D443" s="45"/>
+      <c r="A443" s="46">
+        <v>45231</v>
+      </c>
+      <c r="B443" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C443" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="D443" s="45">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E443" s="47"/>
       <c r="F443" s="44"/>
-      <c r="G443" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G443" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H443" s="45"/>
       <c r="I443" s="47"/>
@@ -11819,15 +11888,23 @@
       <c r="K443" s="44"/>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A444" s="46"/>
-      <c r="B444" s="44"/>
-      <c r="C444" s="12"/>
-      <c r="D444" s="45"/>
+      <c r="A444" s="46">
+        <v>45261</v>
+      </c>
+      <c r="B444" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="C444" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="D444" s="45">
+        <v>0.16700000000000001</v>
+      </c>
       <c r="E444" s="47"/>
       <c r="F444" s="44"/>
-      <c r="G444" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G444" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H444" s="45"/>
       <c r="I444" s="47"/>
@@ -11835,7 +11912,9 @@
       <c r="K444" s="44"/>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A445" s="46"/>
+      <c r="A445" s="40" t="s">
+        <v>280</v>
+      </c>
       <c r="B445" s="44"/>
       <c r="C445" s="12"/>
       <c r="D445" s="45"/>
@@ -11851,7 +11930,9 @@
       <c r="K445" s="44"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A446" s="46"/>
+      <c r="A446" s="46">
+        <v>45292</v>
+      </c>
       <c r="B446" s="44"/>
       <c r="C446" s="12"/>
       <c r="D446" s="45"/>
@@ -11867,7 +11948,9 @@
       <c r="K446" s="44"/>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A447" s="46"/>
+      <c r="A447" s="46">
+        <v>45323</v>
+      </c>
       <c r="B447" s="44"/>
       <c r="C447" s="12"/>
       <c r="D447" s="45"/>
@@ -11883,7 +11966,9 @@
       <c r="K447" s="44"/>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A448" s="46"/>
+      <c r="A448" s="46">
+        <v>45352</v>
+      </c>
       <c r="B448" s="44"/>
       <c r="C448" s="12"/>
       <c r="D448" s="45"/>
@@ -11899,7 +11984,9 @@
       <c r="K448" s="44"/>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A449" s="46"/>
+      <c r="A449" s="46">
+        <v>45383</v>
+      </c>
       <c r="B449" s="44"/>
       <c r="C449" s="12"/>
       <c r="D449" s="45"/>
@@ -11915,7 +12002,9 @@
       <c r="K449" s="44"/>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A450" s="46"/>
+      <c r="A450" s="46">
+        <v>45413</v>
+      </c>
       <c r="B450" s="44"/>
       <c r="C450" s="12"/>
       <c r="D450" s="45"/>
@@ -12491,20 +12580,68 @@
       <c r="K485" s="44"/>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A486" s="52"/>
-      <c r="B486" s="49"/>
-      <c r="C486" s="35"/>
-      <c r="D486" s="50"/>
+      <c r="A486" s="46"/>
+      <c r="B486" s="44"/>
+      <c r="C486" s="12"/>
+      <c r="D486" s="45"/>
       <c r="E486" s="47"/>
-      <c r="F486" s="49"/>
-      <c r="G486" s="35" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H486" s="50"/>
+      <c r="F486" s="44"/>
+      <c r="G486" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H486" s="45"/>
       <c r="I486" s="47"/>
-      <c r="J486" s="51"/>
-      <c r="K486" s="49"/>
+      <c r="J486" s="43"/>
+      <c r="K486" s="44"/>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A487" s="46"/>
+      <c r="B487" s="44"/>
+      <c r="C487" s="12"/>
+      <c r="D487" s="45"/>
+      <c r="E487" s="47"/>
+      <c r="F487" s="44"/>
+      <c r="G487" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H487" s="45"/>
+      <c r="I487" s="47"/>
+      <c r="J487" s="43"/>
+      <c r="K487" s="44"/>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A488" s="46"/>
+      <c r="B488" s="44"/>
+      <c r="C488" s="12"/>
+      <c r="D488" s="45"/>
+      <c r="E488" s="47"/>
+      <c r="F488" s="44"/>
+      <c r="G488" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H488" s="45"/>
+      <c r="I488" s="47"/>
+      <c r="J488" s="43"/>
+      <c r="K488" s="44"/>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A489" s="52"/>
+      <c r="B489" s="49"/>
+      <c r="C489" s="35"/>
+      <c r="D489" s="50"/>
+      <c r="E489" s="47"/>
+      <c r="F489" s="49"/>
+      <c r="G489" s="35" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H489" s="50"/>
+      <c r="I489" s="47"/>
+      <c r="J489" s="51"/>
+      <c r="K489" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12614,15 +12751,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="11">
-        <v>2</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="37">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.25</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J3" s="39">
         <v>16</v>
